--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_6_6.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_6_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1360223.892787134</v>
+        <v>-1332531.838571819</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17475878.18025492</v>
+        <v>16794960.12241026</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10428511.74697079</v>
+        <v>10451141.08728534</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>116.6008642906371</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
-        <v>384.8400269276052</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>238.5853309714894</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>135.2033677499754</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -880,7 +880,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -896,7 +896,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
@@ -908,7 +908,7 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -950,16 +950,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>295.9947477120054</v>
       </c>
       <c r="X5" t="n">
-        <v>123.3549449679254</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1057,22 +1057,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>88.97263407854754</v>
+        <v>114.4396071673912</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>380.9934992173532</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>143.9188969657111</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1300,10 +1300,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>67.4289457920829</v>
       </c>
       <c r="V10" t="n">
-        <v>279.1559595825166</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1382,13 +1382,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>159.401179991464</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1528,7 +1528,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
@@ -1537,16 +1537,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>10.04027365719926</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>63.51633119327901</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1661,7 +1661,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561544</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1771,7 +1771,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>65.07405371603534</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
@@ -1780,10 +1780,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1822,13 +1822,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>103.3456594571955</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2011,16 +2011,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2062,7 +2062,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>78.37744390510585</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800578</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2239,7 +2239,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>50.38971918733537</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
@@ -2254,10 +2254,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>27.07950026194634</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2491,10 +2491,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>35.20092700998597</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>103.8284742946034</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2713,7 +2713,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
@@ -2728,7 +2728,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
-        <v>114.9577730479998</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2965,7 +2965,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>82.14201637551359</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3013,7 +3013,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3080,7 +3080,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T32" t="n">
-        <v>217.8665548556926</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U32" t="n">
         <v>256.6300796561533</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930498</v>
       </c>
       <c r="C34" t="n">
         <v>154.6003840628599</v>
@@ -3196,16 +3196,16 @@
         <v>151.8247133730227</v>
       </c>
       <c r="F34" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591139</v>
       </c>
       <c r="G34" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H34" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277818</v>
       </c>
       <c r="I34" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432389</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>4.967932742934465</v>
+        <v>4.967932742934455</v>
       </c>
       <c r="S34" t="n">
-        <v>141.4132446762356</v>
+        <v>141.4132446762359</v>
       </c>
       <c r="T34" t="n">
         <v>227.1849416185819</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>66.57964473925399</v>
+        <v>66.57964473925398</v>
       </c>
       <c r="T35" t="n">
         <v>201.6308445169444</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930498</v>
       </c>
       <c r="C37" t="n">
         <v>154.6003840628599</v>
@@ -3433,16 +3433,16 @@
         <v>151.8247133730227</v>
       </c>
       <c r="F37" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591139</v>
       </c>
       <c r="G37" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H37" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277818</v>
       </c>
       <c r="I37" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432403</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.967932742934465</v>
+        <v>4.967932742934044</v>
       </c>
       <c r="S37" t="n">
         <v>141.4132446762359</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925399</v>
+        <v>66.57964473925398</v>
       </c>
       <c r="T38" t="n">
         <v>201.6308445169444</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930498</v>
       </c>
       <c r="C40" t="n">
         <v>154.6003840628599</v>
@@ -3670,16 +3670,16 @@
         <v>151.8247133730227</v>
       </c>
       <c r="F40" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591139</v>
       </c>
       <c r="G40" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H40" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277818</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432403</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934472</v>
+        <v>4.967932742934455</v>
       </c>
       <c r="S40" t="n">
         <v>141.4132446762359</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925399</v>
+        <v>66.57964473925398</v>
       </c>
       <c r="T41" t="n">
         <v>201.6308445169444</v>
@@ -3806,7 +3806,7 @@
         <v>398.715328447735</v>
       </c>
       <c r="Y41" t="n">
-        <v>387.9675521245957</v>
+        <v>387.9675521245982</v>
       </c>
     </row>
     <row r="42">
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930498</v>
       </c>
       <c r="C43" t="n">
         <v>154.6003840628599</v>
@@ -3907,16 +3907,16 @@
         <v>151.8247133730227</v>
       </c>
       <c r="F43" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591139</v>
       </c>
       <c r="G43" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H43" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277818</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432403</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934472</v>
+        <v>4.967932742934455</v>
       </c>
       <c r="S43" t="n">
         <v>141.4132446762359</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925401</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T44" t="n">
         <v>201.6308445169444</v>
@@ -4153,7 +4153,7 @@
         <v>122.2674422277819</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432406</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934476</v>
+        <v>4.967932742934472</v>
       </c>
       <c r="S46" t="n">
         <v>141.4132446762359</v>
@@ -4195,7 +4195,7 @@
         <v>267.8502427095265</v>
       </c>
       <c r="W46" t="n">
-        <v>253.0704300308236</v>
+        <v>253.070430030824</v>
       </c>
       <c r="X46" t="n">
         <v>226.7021267811743</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.6709685284823</v>
+        <v>604.5478085862115</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6709685284823</v>
+        <v>486.7691577875882</v>
       </c>
       <c r="D2" t="n">
-        <v>422.6709685284823</v>
+        <v>58.18748352485655</v>
       </c>
       <c r="E2" t="n">
-        <v>33.94366860160834</v>
+        <v>58.18748352485655</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4343,7 +4343,7 @@
         <v>453.9965675465116</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4358,22 +4358,22 @@
         <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1613.531556264254</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U2" t="n">
-        <v>1613.531556264254</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="V2" t="n">
-        <v>1250.914606198081</v>
+        <v>1030.847379071119</v>
       </c>
       <c r="W2" t="n">
-        <v>1250.099555649518</v>
+        <v>1030.847379071119</v>
       </c>
       <c r="X2" t="n">
-        <v>830.9570922288289</v>
+        <v>1030.847379071119</v>
       </c>
       <c r="Y2" t="n">
-        <v>422.6709685284823</v>
+        <v>1030.847379071119</v>
       </c>
     </row>
     <row r="3">
@@ -4404,28 +4404,28 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L3" t="n">
-        <v>453.9965675465116</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M3" t="n">
-        <v>453.9965675465116</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N3" t="n">
-        <v>453.9965675465116</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O3" t="n">
-        <v>874.0494664914149</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P3" t="n">
-        <v>1294.102365436318</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
         <v>1580.010651986078</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199.5349435757807</v>
+        <v>369.5796651493484</v>
       </c>
       <c r="C4" t="n">
-        <v>199.5349435757807</v>
+        <v>369.5796651493484</v>
       </c>
       <c r="D4" t="n">
-        <v>199.5349435757807</v>
+        <v>203.7016723508711</v>
       </c>
       <c r="E4" t="n">
-        <v>199.5349435757807</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F4" t="n">
-        <v>199.5349435757807</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
         <v>33.94366860160834</v>
@@ -4489,22 +4489,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>271.0586252774393</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>689.2685070454004</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>1109.321405990304</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N4" t="n">
-        <v>1109.321405990304</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4513,25 +4513,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T4" t="n">
-        <v>1456.188146270832</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="U4" t="n">
-        <v>1177.755145523937</v>
+        <v>1401.373003045106</v>
       </c>
       <c r="V4" t="n">
-        <v>890.7996373943679</v>
+        <v>1114.417494915536</v>
       </c>
       <c r="W4" t="n">
-        <v>618.7732329806595</v>
+        <v>842.3910905018276</v>
       </c>
       <c r="X4" t="n">
-        <v>618.7732329806595</v>
+        <v>596.9993358352401</v>
       </c>
       <c r="Y4" t="n">
-        <v>391.3535622947678</v>
+        <v>369.5796651493484</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>837.5030339308241</v>
+        <v>861.1034664864396</v>
       </c>
       <c r="C5" t="n">
-        <v>408.9213596680925</v>
+        <v>827.001397710267</v>
       </c>
       <c r="D5" t="n">
-        <v>377.0519788829411</v>
+        <v>795.1320169251156</v>
       </c>
       <c r="E5" t="n">
-        <v>347.3176380816403</v>
+        <v>765.3976761238149</v>
       </c>
       <c r="F5" t="n">
-        <v>323.4906125312521</v>
+        <v>741.5706505734267</v>
       </c>
       <c r="G5" t="n">
-        <v>323.4906125312521</v>
+        <v>340.1728191966907</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>51.04266463990692</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704693</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.8805627199648</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>1112.375769149671</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>1189.145706210989</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>1189.145706210989</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>1189.145706210989</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1189.145706210989</v>
       </c>
       <c r="P5" t="n">
-        <v>1294.102365436318</v>
+        <v>1815.640912640695</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2362.13969859929</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352347</v>
       </c>
       <c r="S5" t="n">
-        <v>1613.531556264254</v>
+        <v>2447.641889536183</v>
       </c>
       <c r="T5" t="n">
-        <v>1393.464329137293</v>
+        <v>2227.574662409222</v>
       </c>
       <c r="U5" t="n">
-        <v>1393.464329137293</v>
+        <v>1968.352359726239</v>
       </c>
       <c r="V5" t="n">
-        <v>1393.464329137293</v>
+        <v>1605.735409660065</v>
       </c>
       <c r="W5" t="n">
-        <v>1392.64927858873</v>
+        <v>1306.750816011575</v>
       </c>
       <c r="X5" t="n">
-        <v>1268.048324075674</v>
+        <v>1291.64875663129</v>
       </c>
       <c r="Y5" t="n">
-        <v>1263.802604415732</v>
+        <v>1287.403036971347</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.7976202583397</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.341159094982</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.2508702415353</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>261.130455568489</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>177.7466171846506</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.36152745083446</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704693</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.68954842750452</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.2478733937168</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1027.743079823422</v>
       </c>
       <c r="L6" t="n">
-        <v>804.6185656731816</v>
+        <v>1055.953920019441</v>
       </c>
       <c r="M6" t="n">
-        <v>804.6185656731816</v>
+        <v>1055.953920019441</v>
       </c>
       <c r="N6" t="n">
-        <v>804.6185656731816</v>
+        <v>1055.953920019441</v>
       </c>
       <c r="O6" t="n">
-        <v>804.6185656731816</v>
+        <v>1055.953920019441</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.953920019441</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.692858651516</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.865636745856</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.410199194239</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.231555524841</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.895008524809</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.777490586808</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.4547363200022</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.5873005588821</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>678.1015213381029</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>473.0837817107156</v>
+        <v>1075.52159492501</v>
       </c>
       <c r="C7" t="n">
-        <v>300.5220701939406</v>
+        <v>902.9598834082352</v>
       </c>
       <c r="D7" t="n">
-        <v>300.5220701939406</v>
+        <v>737.0818906097579</v>
       </c>
       <c r="E7" t="n">
-        <v>210.6507226398521</v>
+        <v>621.4863278144132</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>444.7792737761694</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>279.1879988019971</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.2858244923716</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704693</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>50.62587526704693</v>
       </c>
       <c r="K7" t="n">
-        <v>120.5233537662982</v>
+        <v>325.3843298381825</v>
       </c>
       <c r="L7" t="n">
-        <v>341.3779633559367</v>
+        <v>743.5942116061436</v>
       </c>
       <c r="M7" t="n">
-        <v>761.43086230084</v>
+        <v>1203.078078787057</v>
       </c>
       <c r="N7" t="n">
-        <v>1181.483761245743</v>
+        <v>1645.336881944701</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2065.006131170483</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2412.513025140825</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352347</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2509.875942057718</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2350.634573355715</v>
       </c>
       <c r="T7" t="n">
-        <v>1451.303983658873</v>
+        <v>2104.75512693417</v>
       </c>
       <c r="U7" t="n">
-        <v>1451.303983658873</v>
+        <v>1826.322126187275</v>
       </c>
       <c r="V7" t="n">
-        <v>1164.348475529303</v>
+        <v>1539.366618057706</v>
       </c>
       <c r="W7" t="n">
-        <v>892.3220711155946</v>
+        <v>1267.340213643997</v>
       </c>
       <c r="X7" t="n">
-        <v>892.3220711155946</v>
+        <v>1267.340213643997</v>
       </c>
       <c r="Y7" t="n">
-        <v>664.9024004297028</v>
+        <v>1267.340213643997</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>907.846853507573</v>
+        <v>866.1045910388293</v>
       </c>
       <c r="C8" t="n">
-        <v>873.7447847314004</v>
+        <v>832.0025222626567</v>
       </c>
       <c r="D8" t="n">
-        <v>488.9028663300335</v>
+        <v>800.1331414775053</v>
       </c>
       <c r="E8" t="n">
-        <v>459.1685255287327</v>
+        <v>366.3583966358005</v>
       </c>
       <c r="F8" t="n">
-        <v>435.3414999783445</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>874.0494664914149</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="M8" t="n">
-        <v>874.0494664914149</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="N8" t="n">
-        <v>874.0494664914149</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="O8" t="n">
-        <v>874.0494664914149</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1613.531556264254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1613.531556264254</v>
+        <v>2524.68820323374</v>
       </c>
       <c r="U8" t="n">
-        <v>1354.309253581271</v>
+        <v>2524.68820323374</v>
       </c>
       <c r="V8" t="n">
-        <v>1354.309253581271</v>
+        <v>2524.68820323374</v>
       </c>
       <c r="W8" t="n">
-        <v>1353.494203032709</v>
+        <v>2119.832748644773</v>
       </c>
       <c r="X8" t="n">
-        <v>1338.392143652423</v>
+        <v>1700.690285224084</v>
       </c>
       <c r="Y8" t="n">
-        <v>930.1060199520767</v>
+        <v>1292.404161523737</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>770.7035002010737</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>598.1417886842986</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>432.2637958858213</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>262.5057921365585</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>262.5057921365585</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>262.5057921365585</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>452.1535503695694</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>872.2064493144727</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1291.875698540254</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1639.382592510596</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1516.524240083786</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>1516.524240083786</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U10" t="n">
-        <v>1516.524240083786</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1234.548523333769</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>962.5221189200608</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>962.5221189200608</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>962.5221189200608</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2104.9893083776</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>1666.846835561023</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1230.937050735468</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>797.1623058937629</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>369.2948763029706</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>369.2948763029706</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>80.16472174618688</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>80.16472174618688</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>515.4194091991047</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1349.769701157283</v>
+        <v>1039.550377927473</v>
       </c>
       <c r="L11" t="n">
-        <v>1349.769701157283</v>
+        <v>2114.610344180332</v>
       </c>
       <c r="M11" t="n">
-        <v>1484.09369519399</v>
+        <v>3271.658179390883</v>
       </c>
       <c r="N11" t="n">
-        <v>1484.09369519399</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="O11" t="n">
-        <v>2464.273361764296</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="P11" t="n">
-        <v>3292.583236597692</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>3839.082022556287</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>4008.236087309344</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>3924.584213493181</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>3924.584213493181</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>3763.57292057251</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>3763.57292057251</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>3358.717465983544</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X11" t="n">
-        <v>2939.575002562854</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2531.288878862508</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>586.3364667374797</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>479.880005574122</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>384.7897167206752</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>290.6693020476289</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>207.2854636637906</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>121.9003739299744</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>80.16472174618688</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>106.2283949066445</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>430.7867198728568</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>1085.492766498581</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>1085.492766498581</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>1085.492766498581</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>1085.492766498581</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>1085.492766498581</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1085.492766498581</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1626.231705130656</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1743.404483224996</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1679.949045673379</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1549.770402003981</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1373.433855003949</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1174.316337065948</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>988.9935827991421</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>834.1261470380221</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>707.6403678172428</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>982.5158283198244</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C13" t="n">
-        <v>809.9541168030494</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="D13" t="n">
-        <v>644.0761240045721</v>
+        <v>624.4588635952861</v>
       </c>
       <c r="E13" t="n">
-        <v>474.3181202553093</v>
+        <v>454.7008598460233</v>
       </c>
       <c r="F13" t="n">
-        <v>474.3181202553093</v>
+        <v>277.9938058077795</v>
       </c>
       <c r="G13" t="n">
-        <v>308.726845281137</v>
+        <v>112.4025308336072</v>
       </c>
       <c r="H13" t="n">
-        <v>168.8246709715116</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
-        <v>80.16472174618688</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>166.7444069108767</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>441.5028614820123</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>859.7127432499734</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1319.196610430886</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1761.455413588531</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2181.124662814313</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2528.631556784655</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2696.824331648987</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2675.406510354358</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S13" t="n">
-        <v>2516.165141652355</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T13" t="n">
-        <v>2270.28569523081</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U13" t="n">
-        <v>2206.127784934569</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V13" t="n">
-        <v>1919.172276804999</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W13" t="n">
-        <v>1647.145872391291</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X13" t="n">
-        <v>1401.754117724703</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y13" t="n">
-        <v>1174.334447038812</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="14">
@@ -5264,49 +5264,49 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I14" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>1632.322702740237</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>1632.322702740237</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O14" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
         <v>4550.100609912873</v>
@@ -5315,13 +5315,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
         <v>1765.500601749588</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1077.292364523333</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C16" t="n">
-        <v>904.7306530065579</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D16" t="n">
-        <v>738.8526602080806</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E16" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F16" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G16" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H16" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
         <v>102.2608402707796</v>
@@ -5458,28 +5458,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U16" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V16" t="n">
-        <v>2013.948813008508</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W16" t="n">
-        <v>1741.922408594799</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X16" t="n">
-        <v>1496.530653928212</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y16" t="n">
-        <v>1269.11098324232</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>3007.131363532228</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="N17" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O17" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P17" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q17" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5571,16 +5571,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D18" t="n">
-        <v>406.885835245268</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E18" t="n">
-        <v>312.7654205722217</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F18" t="n">
-        <v>229.3815821883833</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G18" t="n">
         <v>143.9964924545671</v>
@@ -5589,31 +5589,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1004.611946844417</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>832.0502353276421</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>666.1722425291648</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>496.4142387799021</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5698,25 +5698,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1669.241990915884</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1423.850236249296</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1196.430565563404</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
         <v>2090.757574835212</v>
@@ -5738,7 +5738,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G20" t="n">
         <v>391.8077842004234</v>
@@ -5750,52 +5750,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>926.893353805728</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>2001.953320058587</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>3159.001155269138</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N20" t="n">
-        <v>4284.732138705585</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>4284.732138705585</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M21" t="n">
-        <v>531.6733301892817</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N21" t="n">
-        <v>1765.500601749588</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O21" t="n">
-        <v>1765.500601749588</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P21" t="n">
-        <v>1765.500601749588</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1068.769857140658</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C22" t="n">
-        <v>896.2081456238831</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D22" t="n">
-        <v>730.3301528254058</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E22" t="n">
-        <v>560.572149076143</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F22" t="n">
-        <v>383.8650950378992</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G22" t="n">
-        <v>218.2738200637269</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5932,28 +5932,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U22" t="n">
-        <v>2292.381813755403</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V22" t="n">
-        <v>2005.426305625833</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W22" t="n">
-        <v>1733.399901212125</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X22" t="n">
-        <v>1488.008146545537</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y22" t="n">
-        <v>1260.588475859645</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="23">
@@ -5978,37 +5978,37 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M23" t="n">
-        <v>2093.658967439508</v>
+        <v>2528.913654892426</v>
       </c>
       <c r="N23" t="n">
-        <v>3219.389950875955</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>4199.569617446262</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5027.879492279658</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6063,31 +6063,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057297</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2683.3639582443</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2683.3639582443</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6233,16 +6233,16 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3603.973621145286</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
-        <v>4729.704604581732</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>4943.887948785924</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>4943.887948785924</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
         <v>4943.887948785924</v>
@@ -6300,31 +6300,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>920.0973401405612</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2422.1422975022</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2143.709296755305</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1856.753788625736</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1584.727384212028</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1339.33562954544</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1111.915958859548</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6461,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2334.36864173419</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6537,31 +6537,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1116.062450089081</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1035.728611060351</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>863.1668995435758</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>697.2889067450985</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>527.5309029958357</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>350.823848957592</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>185.2325739834196</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1454.96690046523</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1227.547229779338</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6686,46 +6686,46 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>102.2608402707796</v>
+        <v>605.8694973157604</v>
       </c>
       <c r="L32" t="n">
-        <v>1177.320806523639</v>
+        <v>1680.92946356862</v>
       </c>
       <c r="M32" t="n">
-        <v>2334.36864173419</v>
+        <v>2837.977298779171</v>
       </c>
       <c r="N32" t="n">
-        <v>3460.099625170637</v>
+        <v>3963.708282215618</v>
       </c>
       <c r="O32" t="n">
-        <v>4440.279291740943</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T32" t="n">
         <v>4809.322912595856</v>
@@ -6737,13 +6737,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6835,22 +6835,22 @@
         <v>1066.521048992528</v>
       </c>
       <c r="C34" t="n">
-        <v>910.3590448886291</v>
+        <v>910.3590448886289</v>
       </c>
       <c r="D34" t="n">
-        <v>760.880759503028</v>
+        <v>760.8807595030278</v>
       </c>
       <c r="E34" t="n">
-        <v>607.5224631666414</v>
+        <v>607.5224631666412</v>
       </c>
       <c r="F34" t="n">
-        <v>447.2151165412737</v>
+        <v>447.2151165412736</v>
       </c>
       <c r="G34" t="n">
-        <v>298.0235489799775</v>
+        <v>298.0235489799774</v>
       </c>
       <c r="H34" t="n">
-        <v>174.5210820832282</v>
+        <v>174.521082083228</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6889,7 +6889,7 @@
         <v>2470.16776187691</v>
       </c>
       <c r="U34" t="n">
-        <v>2208.134468542892</v>
+        <v>2208.134468542891</v>
       </c>
       <c r="V34" t="n">
         <v>1937.578667826198</v>
@@ -6898,7 +6898,7 @@
         <v>1681.951970825366</v>
       </c>
       <c r="X34" t="n">
-        <v>1452.959923571655</v>
+        <v>1452.959923571654</v>
       </c>
       <c r="Y34" t="n">
         <v>1241.939960298639</v>
@@ -6914,16 +6914,16 @@
         <v>2425.39087720671</v>
       </c>
       <c r="C35" t="n">
-        <v>2003.648111803009</v>
+        <v>2003.64811180301</v>
       </c>
       <c r="D35" t="n">
         <v>1584.13803439033</v>
       </c>
       <c r="E35" t="n">
-        <v>1166.762996961501</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F35" t="n">
-        <v>755.2952747835851</v>
+        <v>755.2952747835855</v>
       </c>
       <c r="G35" t="n">
         <v>370.2971508197255</v>
@@ -6935,40 +6935,40 @@
         <v>97.56670367581785</v>
       </c>
       <c r="J35" t="n">
-        <v>97.56670367581785</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K35" t="n">
-        <v>97.56670367581785</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L35" t="n">
-        <v>1172.626669928677</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M35" t="n">
-        <v>1944.114658950743</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N35" t="n">
-        <v>3069.84564238719</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O35" t="n">
-        <v>4050.025308957497</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P35" t="n">
-        <v>4878.335183790892</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q35" t="n">
-        <v>4878.335183790892</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R35" t="n">
         <v>4878.335183790892</v>
       </c>
       <c r="S35" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T35" t="n">
-        <v>4607.415497673521</v>
+        <v>4607.41549767352</v>
       </c>
       <c r="U35" t="n">
-        <v>4364.592902403414</v>
+        <v>4364.592902403413</v>
       </c>
       <c r="V35" t="n">
         <v>4018.375659750116</v>
@@ -7017,19 +7017,19 @@
         <v>448.1887018024878</v>
       </c>
       <c r="K36" t="n">
-        <v>448.1887018024878</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L36" t="n">
-        <v>448.1887018024878</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="M36" t="n">
-        <v>448.1887018024878</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="N36" t="n">
-        <v>448.1887018024878</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O36" t="n">
-        <v>448.1887018024878</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P36" t="n">
         <v>1102.894748428211</v>
@@ -7069,7 +7069,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1061.826912397567</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C37" t="n">
         <v>905.6649082936674</v>
@@ -7081,10 +7081,10 @@
         <v>602.8283265716796</v>
       </c>
       <c r="F37" t="n">
-        <v>442.520979946312</v>
+        <v>442.5209799463119</v>
       </c>
       <c r="G37" t="n">
-        <v>293.3294123850158</v>
+        <v>293.3294123850157</v>
       </c>
       <c r="H37" t="n">
         <v>169.8269454882664</v>
@@ -7111,10 +7111,10 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P37" t="n">
-        <v>2658.547011361805</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q37" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R37" t="n">
         <v>2837.795025579745</v>
@@ -7123,13 +7123,13 @@
         <v>2694.953364290617</v>
       </c>
       <c r="T37" t="n">
-        <v>2465.473625281949</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U37" t="n">
         <v>2203.44033194793</v>
       </c>
       <c r="V37" t="n">
-        <v>1932.884531231237</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W37" t="n">
         <v>1677.257834230404</v>
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2425.39087720671</v>
+        <v>2425.390877206709</v>
       </c>
       <c r="C38" t="n">
-        <v>2003.64811180301</v>
+        <v>2003.648111803009</v>
       </c>
       <c r="D38" t="n">
         <v>1584.13803439033</v>
@@ -7160,7 +7160,7 @@
         <v>1166.762996961501</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835852</v>
+        <v>755.2952747835848</v>
       </c>
       <c r="G38" t="n">
         <v>370.2971508197255</v>
@@ -7172,52 +7172,52 @@
         <v>97.56670367581785</v>
       </c>
       <c r="J38" t="n">
-        <v>97.56670367581785</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K38" t="n">
-        <v>97.56670367581785</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L38" t="n">
-        <v>1172.626669928677</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M38" t="n">
-        <v>2329.674505139228</v>
+        <v>3599.279484550324</v>
       </c>
       <c r="N38" t="n">
-        <v>3455.405488575675</v>
+        <v>3599.279484550324</v>
       </c>
       <c r="O38" t="n">
-        <v>4435.585155145982</v>
+        <v>3599.279484550324</v>
       </c>
       <c r="P38" t="n">
-        <v>4435.585155145982</v>
+        <v>4162.682333079241</v>
       </c>
       <c r="Q38" t="n">
-        <v>4878.335183790892</v>
+        <v>4709.181119037836</v>
       </c>
       <c r="R38" t="n">
         <v>4878.335183790892</v>
       </c>
       <c r="S38" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T38" t="n">
-        <v>4607.415497673521</v>
+        <v>4607.41549767352</v>
       </c>
       <c r="U38" t="n">
-        <v>4364.592902403414</v>
+        <v>4364.592902403413</v>
       </c>
       <c r="V38" t="n">
-        <v>4018.375659750116</v>
+        <v>4018.375659750115</v>
       </c>
       <c r="W38" t="n">
-        <v>3629.919912574026</v>
+        <v>3629.919912574025</v>
       </c>
       <c r="X38" t="n">
         <v>3227.177156566212</v>
       </c>
       <c r="Y38" t="n">
-        <v>2835.290740278742</v>
+        <v>2835.290740278741</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>97.56670367581785</v>
       </c>
       <c r="I39" t="n">
-        <v>97.56670367581785</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J39" t="n">
-        <v>97.56670367581785</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K39" t="n">
-        <v>97.56670367581785</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L39" t="n">
-        <v>1052.109752486922</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="M39" t="n">
-        <v>1052.109752486922</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="N39" t="n">
-        <v>1052.109752486922</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O39" t="n">
-        <v>1760.806465154627</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P39" t="n">
-        <v>1760.806465154627</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="Q39" t="n">
-        <v>1760.806465154627</v>
+        <v>1643.633687060287</v>
       </c>
       <c r="R39" t="n">
         <v>1760.806465154627</v>
@@ -7309,25 +7309,25 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936667</v>
+        <v>905.6649082936672</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080654</v>
+        <v>756.1866229080661</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716789</v>
+        <v>602.8283265716797</v>
       </c>
       <c r="F40" t="n">
-        <v>442.5209799463112</v>
+        <v>442.520979946312</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850151</v>
+        <v>293.3294123850158</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882661</v>
+        <v>169.8269454882664</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J40" t="n">
         <v>200.2197420758676</v>
@@ -7348,13 +7348,13 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P40" t="n">
-        <v>2658.547011361804</v>
+        <v>2658.547011361805</v>
       </c>
       <c r="Q40" t="n">
-        <v>2842.813139461496</v>
+        <v>2842.813139461497</v>
       </c>
       <c r="R40" t="n">
-        <v>2837.795025579744</v>
+        <v>2837.795025579745</v>
       </c>
       <c r="S40" t="n">
         <v>2694.953364290617</v>
@@ -7363,16 +7363,16 @@
         <v>2465.473625281948</v>
       </c>
       <c r="U40" t="n">
-        <v>2203.440331947929</v>
+        <v>2203.44033194793</v>
       </c>
       <c r="V40" t="n">
         <v>1932.884531231236</v>
       </c>
       <c r="W40" t="n">
-        <v>1677.257834230403</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X40" t="n">
-        <v>1448.265786976692</v>
+        <v>1448.265786976693</v>
       </c>
       <c r="Y40" t="n">
         <v>1237.245823703677</v>
@@ -7394,19 +7394,19 @@
         <v>1584.13803439033</v>
       </c>
       <c r="E41" t="n">
-        <v>1166.762996961501</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835852</v>
+        <v>755.2952747835855</v>
       </c>
       <c r="G41" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581788</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581788</v>
       </c>
       <c r="J41" t="n">
         <v>532.8213911287357</v>
@@ -7430,31 +7430,31 @@
         <v>4250.721190743476</v>
       </c>
       <c r="Q41" t="n">
-        <v>4709.181119037836</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790892</v>
+        <v>4878.335183790894</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387607</v>
       </c>
       <c r="T41" t="n">
-        <v>4607.41549767352</v>
+        <v>4607.415497673523</v>
       </c>
       <c r="U41" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403416</v>
       </c>
       <c r="V41" t="n">
-        <v>4018.375659750116</v>
+        <v>4018.375659750118</v>
       </c>
       <c r="W41" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574028</v>
       </c>
       <c r="X41" t="n">
-        <v>3227.177156566212</v>
+        <v>3227.177156566215</v>
       </c>
       <c r="Y41" t="n">
-        <v>2835.290740278741</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="42">
@@ -7482,16 +7482,16 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581788</v>
       </c>
       <c r="I42" t="n">
-        <v>123.6303768362754</v>
+        <v>123.6303768362755</v>
       </c>
       <c r="J42" t="n">
         <v>448.1887018024878</v>
       </c>
       <c r="K42" t="n">
-        <v>448.1887018024878</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L42" t="n">
         <v>1102.894748428211</v>
@@ -7564,16 +7564,16 @@
         <v>169.8269454882664</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581788</v>
       </c>
       <c r="J43" t="n">
-        <v>200.2197420758676</v>
+        <v>200.2197420758677</v>
       </c>
       <c r="K43" t="n">
         <v>491.0515498823631</v>
       </c>
       <c r="L43" t="n">
-        <v>925.334784885684</v>
+        <v>925.3347848856841</v>
       </c>
       <c r="M43" t="n">
         <v>1400.892005301957</v>
@@ -7585,13 +7585,13 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P43" t="n">
-        <v>2658.547011361804</v>
+        <v>2658.547011361805</v>
       </c>
       <c r="Q43" t="n">
-        <v>2842.813139461496</v>
+        <v>2842.813139461497</v>
       </c>
       <c r="R43" t="n">
-        <v>2837.795025579744</v>
+        <v>2837.795025579745</v>
       </c>
       <c r="S43" t="n">
         <v>2694.953364290617</v>
@@ -7603,10 +7603,10 @@
         <v>2203.44033194793</v>
       </c>
       <c r="V43" t="n">
-        <v>1932.884531231237</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W43" t="n">
-        <v>1677.257834230405</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X43" t="n">
         <v>1448.265786976693</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2425.390877206709</v>
+        <v>2425.39087720671</v>
       </c>
       <c r="C44" t="n">
-        <v>2003.648111803009</v>
+        <v>2003.64811180301</v>
       </c>
       <c r="D44" t="n">
-        <v>1584.138034390329</v>
+        <v>1584.138034390331</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.7629969615</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835848</v>
+        <v>755.2952747835856</v>
       </c>
       <c r="G44" t="n">
         <v>370.2971508197255</v>
@@ -7646,28 +7646,28 @@
         <v>97.56670367581785</v>
       </c>
       <c r="J44" t="n">
-        <v>97.56670367581785</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K44" t="n">
-        <v>931.9169956339958</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L44" t="n">
-        <v>2006.976961886855</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M44" t="n">
-        <v>2006.976961886855</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N44" t="n">
-        <v>2354.192791675539</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O44" t="n">
-        <v>3334.372458245845</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P44" t="n">
-        <v>4162.682333079241</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q44" t="n">
-        <v>4709.181119037836</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R44" t="n">
         <v>4878.335183790892</v>
@@ -7676,22 +7676,22 @@
         <v>4811.083017387606</v>
       </c>
       <c r="T44" t="n">
-        <v>4607.41549767352</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U44" t="n">
-        <v>4364.592902403412</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V44" t="n">
-        <v>4018.375659750115</v>
+        <v>4018.375659750116</v>
       </c>
       <c r="W44" t="n">
-        <v>3629.919912574024</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X44" t="n">
-        <v>3227.177156566211</v>
+        <v>3227.177156566212</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.29074027874</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>97.56670367581785</v>
       </c>
       <c r="I45" t="n">
-        <v>97.56670367581785</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J45" t="n">
-        <v>97.56670367581785</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K45" t="n">
-        <v>778.3002237461951</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L45" t="n">
-        <v>1732.843272557299</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="M45" t="n">
-        <v>1732.843272557299</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="N45" t="n">
-        <v>1732.843272557299</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O45" t="n">
-        <v>1760.806465154627</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P45" t="n">
-        <v>1760.806465154627</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="Q45" t="n">
-        <v>1760.806465154627</v>
+        <v>1643.633687060287</v>
       </c>
       <c r="R45" t="n">
         <v>1760.806465154627</v>
@@ -7810,7 +7810,7 @@
         <v>491.0515498823631</v>
       </c>
       <c r="L46" t="n">
-        <v>925.334784885684</v>
+        <v>925.3347848856839</v>
       </c>
       <c r="M46" t="n">
         <v>1400.892005301957</v>
@@ -7825,10 +7825,10 @@
         <v>2658.547011361804</v>
       </c>
       <c r="Q46" t="n">
-        <v>2842.813139461496</v>
+        <v>2842.813139461497</v>
       </c>
       <c r="R46" t="n">
-        <v>2837.795025579744</v>
+        <v>2837.795025579745</v>
       </c>
       <c r="S46" t="n">
         <v>2694.953364290617</v>
@@ -7837,7 +7837,7 @@
         <v>2465.473625281948</v>
       </c>
       <c r="U46" t="n">
-        <v>2203.440331947929</v>
+        <v>2203.44033194793</v>
       </c>
       <c r="V46" t="n">
         <v>1932.884531231236</v>
@@ -7991,10 +7991,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8052,16 +8052,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,13 +8070,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="P3" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q3" t="n">
-        <v>288.796249040161</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8137,16 +8137,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>239.5100572483141</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
+        <v>409.401749030468</v>
+      </c>
+      <c r="N4" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -8155,7 +8155,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>632.8234408380865</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>77.54539097102884</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>632.8234408380868</v>
       </c>
       <c r="Q5" t="n">
-        <v>236.2898988798406</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>632.8234408380865</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>28.49579817779613</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>223.0854642319581</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>119.9805436480019</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8468,10 +8468,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,19 +8608,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
@@ -8629,7 +8629,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>58.38468441396094</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8690,22 +8690,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>507.1059092967429</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>135.6808020572798</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8924,19 +8924,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>702.7389601124037</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,16 +9000,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,16 +9018,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,19 +9237,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,31 +9398,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>832.9621348837863</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,22 +9474,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9498,10 +9498,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
         <v>842.7780726850283</v>
@@ -9647,7 +9647,7 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>60.59188538505123</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9656,10 +9656,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>86.02274874679006</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,22 +9711,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9735,10 +9735,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9881,19 +9881,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>216.3468123274661</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697543</v>
@@ -9948,16 +9948,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,16 +9966,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>679.5583048465023</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,13 +10185,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10203,16 +10203,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,10 +10346,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>69.04441372935651</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -10364,13 +10364,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>679.5583048465032</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,34 +10422,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,19 +10583,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>779.2807969919859</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10604,10 +10604,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10680,7 +10680,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10820,10 +10820,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -10832,19 +10832,19 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>569.0937863928461</v>
       </c>
       <c r="Q38" t="n">
-        <v>447.222251156476</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,16 +10896,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L39" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10914,16 +10914,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11078,10 +11078,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.0908366609701</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>81.93455261497365</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,10 +11139,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L42" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>350.72306039261</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,16 +11370,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L45" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11388,16 +11388,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>28.24564908821003</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22544,19 +22544,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>317.1601837977738</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
-        <v>44.5969704656826</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22601,19 +22601,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>81.75743413904745</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -22711,7 +22711,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>88.54178348632668</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22756,7 +22756,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>4.835320985839843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-3.348075624116555e-13</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>97.22889966468927</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>128.46287890933</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>212.1323395461467</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-1.090339436214857e-12</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>102.9863699957348</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-1.151023720780131e-12</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>190.9286964644655</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>120.4463752142719</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>111.4236523045829</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,10 +24412,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>122.4480280049973</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
-        <v>128.4628789093294</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>56.36113619101563</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>4.103384299014579e-13</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>820290.0958102063</v>
+        <v>683775.1139119852</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>894628.5913967607</v>
+        <v>907459.7359295534</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>894628.5913967607</v>
+        <v>909594.3938659615</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>774032.2553311174</v>
+        <v>923605.373698024</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>923605.3736980241</v>
+        <v>923605.373698024</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>923605.3736980241</v>
+        <v>923605.373698024</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>923605.373698024</v>
+        <v>923605.3736980237</v>
       </c>
     </row>
     <row r="9">
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>73452.8640223218</v>
+        <v>60654.5844693636</v>
       </c>
       <c r="C2" t="n">
-        <v>80422.09798356128</v>
+        <v>80422.09798356124</v>
       </c>
       <c r="D2" t="n">
         <v>80422.09798356124</v>
       </c>
       <c r="E2" t="n">
-        <v>66230.3580676446</v>
+        <v>79028.63762060282</v>
       </c>
       <c r="F2" t="n">
-        <v>79028.63762060284</v>
+        <v>79028.63762060281</v>
       </c>
       <c r="G2" t="n">
-        <v>79028.63762060285</v>
+        <v>79028.63762060281</v>
       </c>
       <c r="H2" t="n">
-        <v>79028.63762060284</v>
+        <v>79028.63762060282</v>
       </c>
       <c r="I2" t="n">
         <v>79028.63762060282</v>
       </c>
       <c r="J2" t="n">
-        <v>79028.63762060282</v>
+        <v>79028.63762060281</v>
       </c>
       <c r="K2" t="n">
         <v>79028.63762060281</v>
@@ -26344,16 +26344,16 @@
         <v>80422.09798356135</v>
       </c>
       <c r="M2" t="n">
-        <v>80422.09798356138</v>
+        <v>80422.09798356137</v>
       </c>
       <c r="N2" t="n">
         <v>80422.09798356125</v>
       </c>
       <c r="O2" t="n">
+        <v>80422.09798356137</v>
+      </c>
+      <c r="P2" t="n">
         <v>80422.09798356131</v>
-      </c>
-      <c r="P2" t="n">
-        <v>80422.09798356138</v>
       </c>
     </row>
     <row r="3">
@@ -26366,16 +26366,16 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>67369.1493924627</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>10776.30320106375</v>
       </c>
       <c r="E3" t="n">
-        <v>172507.3700725246</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
-        <v>79138.90570471824</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449903</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53668.32706338247</v>
       </c>
       <c r="L3" t="n">
-        <v>12988.5682709979</v>
+        <v>21768.74196143484</v>
       </c>
       <c r="M3" t="n">
-        <v>129358.4213978837</v>
+        <v>137577.700737852</v>
       </c>
       <c r="N3" t="n">
-        <v>67649.2002734116</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179442.2442618194</v>
+        <v>130743.3336435126</v>
       </c>
       <c r="C4" t="n">
-        <v>205960.9728418668</v>
+        <v>171068.0601277513</v>
       </c>
       <c r="D4" t="n">
-        <v>205960.9728418668</v>
+        <v>165263.0882595584</v>
       </c>
       <c r="E4" t="n">
-        <v>68250.85363567091</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="F4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="G4" t="n">
         <v>81439.57146904283</v>
       </c>
       <c r="H4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904287</v>
       </c>
       <c r="I4" t="n">
         <v>81439.57146904283</v>
@@ -26445,7 +26445,7 @@
         <v>81439.57146904283</v>
       </c>
       <c r="L4" t="n">
-        <v>86781.92928567606</v>
+        <v>86781.9292856761</v>
       </c>
       <c r="M4" t="n">
         <v>94325.77438500366</v>
@@ -26454,7 +26454,7 @@
         <v>94325.77438500366</v>
       </c>
       <c r="O4" t="n">
-        <v>94325.77438500365</v>
+        <v>94325.77438500359</v>
       </c>
       <c r="P4" t="n">
         <v>94325.77438500365</v>
@@ -26470,25 +26470,25 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>72103.26520295566</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>60925.18852710202</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
         <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
+        <v>77718.23860579249</v>
+      </c>
+      <c r="H5" t="n">
+        <v>77718.2386057925</v>
+      </c>
+      <c r="I5" t="n">
         <v>77718.23860579252</v>
-      </c>
-      <c r="H5" t="n">
-        <v>77718.23860579252</v>
-      </c>
-      <c r="I5" t="n">
-        <v>77718.2386057925</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
@@ -26506,7 +26506,7 @@
         <v>75515.61472608971</v>
       </c>
       <c r="O5" t="n">
-        <v>75515.61472608971</v>
+        <v>75515.61472608974</v>
       </c>
       <c r="P5" t="n">
         <v>75515.61472608971</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-307605.4690364299</v>
+        <v>-272034.2965296513</v>
       </c>
       <c r="C6" t="n">
-        <v>-184963.6629955278</v>
+        <v>-230118.3767396084</v>
       </c>
       <c r="D6" t="n">
-        <v>-184963.6629955279</v>
+        <v>-169829.8180388187</v>
       </c>
       <c r="E6" t="n">
-        <v>-235453.054167653</v>
+        <v>-262507.5060146649</v>
       </c>
       <c r="F6" t="n">
-        <v>-159268.0781589508</v>
+        <v>-80152.39679361517</v>
       </c>
       <c r="G6" t="n">
-        <v>-80129.1724542325</v>
+        <v>-80152.39679361501</v>
       </c>
       <c r="H6" t="n">
-        <v>-80129.17245423252</v>
+        <v>-80152.39679361519</v>
       </c>
       <c r="I6" t="n">
-        <v>-80129.1724542325</v>
+        <v>-80152.39679361516</v>
       </c>
       <c r="J6" t="n">
-        <v>-191143.6377992227</v>
+        <v>-191166.8621386054</v>
       </c>
       <c r="K6" t="n">
-        <v>-80129.17245423254</v>
+        <v>-133820.7238569976</v>
       </c>
       <c r="L6" t="n">
-        <v>-98431.55811137326</v>
+        <v>-107211.7318018103</v>
       </c>
       <c r="M6" t="n">
-        <v>-218777.7125254156</v>
+        <v>-226996.991865384</v>
       </c>
       <c r="N6" t="n">
-        <v>-157068.4914009437</v>
+        <v>-89419.29112753212</v>
       </c>
       <c r="O6" t="n">
+        <v>-89419.29112753196</v>
+      </c>
+      <c r="P6" t="n">
         <v>-89419.29112753205</v>
-      </c>
-      <c r="P6" t="n">
-        <v>-89419.29112753198</v>
       </c>
     </row>
   </sheetData>
@@ -26713,16 +26713,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P2" t="n">
         <v>16.23571033874736</v>
@@ -26790,13 +26790,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>632.8234408380866</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1002.059021827336</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
@@ -26826,7 +26826,7 @@
         <v>1219.583795947723</v>
       </c>
       <c r="O4" t="n">
-        <v>1219.583795947723</v>
+        <v>1219.583795947724</v>
       </c>
       <c r="P4" t="n">
         <v>1219.583795947723</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>208.5275833179823</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>34.69176576977031</v>
       </c>
       <c r="E4" t="n">
-        <v>577.7631643072317</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
-        <v>276.2014815574092</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201046</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>208.5275833179823</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>34.69176576977031</v>
       </c>
       <c r="M4" t="n">
-        <v>519.0864568702094</v>
+        <v>552.0685893398661</v>
       </c>
       <c r="N4" t="n">
-        <v>276.2014815574094</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>208.5275833179823</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>34.69176576977031</v>
       </c>
       <c r="M4" t="n">
-        <v>577.7631643072317</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
-        <v>276.2014815574092</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>400</v>
-      </c>
-      <c r="C2" t="n">
-        <v>400</v>
-      </c>
-      <c r="D2" t="n">
-        <v>400</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27397,7 +27397,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>174.8726455171058</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>400</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>79.51864022544343</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -27585,13 +27585,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>140.4453029894503</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,7 +27600,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
@@ -27628,7 +27628,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27670,16 +27670,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
+        <v>104.8121523310716</v>
+      </c>
+      <c r="X5" t="n">
         <v>400</v>
-      </c>
-      <c r="X5" t="n">
-        <v>291.596093818557</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27777,22 +27777,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>79.08778963322257</v>
+        <v>53.6208165443789</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>50.55718775994671</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>73.94765788998069</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28020,10 +28020,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>208.2197249473428</v>
       </c>
       <c r="V10" t="n">
-        <v>4.929993465757263</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="J34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="K34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="L34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="R34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="S34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I35" t="n">
         <v>0.4126214791313976</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="J37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="K37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="L37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="R37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="S37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874492</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874759</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="44">
@@ -34711,10 +34711,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34790,13 +34790,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="P3" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q3" t="n">
-        <v>288.796249040161</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34857,16 +34857,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>239.5100572483141</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
+        <v>409.401749030468</v>
+      </c>
+      <c r="N4" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512943</v>
@@ -34875,7 +34875,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>632.8234408380865</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>77.54539097102884</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>632.8234408380868</v>
       </c>
       <c r="Q5" t="n">
-        <v>236.2898988798406</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,16 +35009,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>632.8234408380865</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>28.49579817779613</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>223.0854642319581</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>119.9805436480019</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35188,10 +35188,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>58.38468441396094</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,28 +35410,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850284</v>
+        <v>507.1059092967429</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>135.6808020572798</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35580,7 +35580,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,19 +35644,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>702.7389601124037</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35668,7 +35668,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,16 +35720,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35738,16 +35738,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,19 +35957,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35978,13 +35978,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>832.9621348837863</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,22 +36194,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36218,10 +36218,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -36367,19 +36367,19 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>60.59188538505123</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>86.02274874679006</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,22 +36431,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36455,10 +36455,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36601,19 +36601,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>216.3468123274661</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
         <v>170.862691669754</v>
@@ -36668,16 +36668,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36686,16 +36686,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>679.5583048465023</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36923,16 +36923,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>69.04441372935651</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -37084,13 +37084,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>679.5583048465032</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>103.689937777828</v>
+        <v>103.6899377778281</v>
       </c>
       <c r="K34" t="n">
         <v>293.7695028348439</v>
       </c>
       <c r="L34" t="n">
-        <v>438.6699343467889</v>
+        <v>438.6699343467888</v>
       </c>
       <c r="M34" t="n">
         <v>480.360828703306</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>779.2807969919859</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37400,7 +37400,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37476,13 +37476,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O37" t="n">
-        <v>440.1440428900421</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P37" t="n">
-        <v>367.2527749552546</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q37" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,10 +37540,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -37552,19 +37552,19 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>569.0937863928461</v>
       </c>
       <c r="Q38" t="n">
-        <v>447.222251156476</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L39" t="n">
-        <v>964.1848977889939</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37634,16 +37634,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37713,13 +37713,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900421</v>
       </c>
       <c r="P40" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q40" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209015</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37798,10 +37798,10 @@
         <v>836.6766412458551</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.0908366609701</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>81.93455261497365</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,10 +37859,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L42" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>103.689937777828</v>
+        <v>103.6899377778281</v>
       </c>
       <c r="K43" t="n">
         <v>293.7695028348439</v>
@@ -37944,13 +37944,13 @@
         <v>438.6699343467889</v>
       </c>
       <c r="M43" t="n">
-        <v>480.3608287033061</v>
+        <v>480.360828703306</v>
       </c>
       <c r="N43" t="n">
         <v>462.9617741343479</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900421</v>
       </c>
       <c r="P43" t="n">
         <v>367.2527749552542</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
@@ -38026,19 +38026,19 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>350.72306039261</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,16 +38090,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L45" t="n">
-        <v>964.1848977889937</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38108,16 +38108,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>28.24564908821003</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38178,22 +38178,22 @@
         <v>293.7695028348439</v>
       </c>
       <c r="L46" t="n">
-        <v>438.6699343467889</v>
+        <v>438.6699343467888</v>
       </c>
       <c r="M46" t="n">
-        <v>480.3608287033061</v>
+        <v>480.360828703306</v>
       </c>
       <c r="N46" t="n">
         <v>462.9617741343479</v>
       </c>
       <c r="O46" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900419</v>
       </c>
       <c r="P46" t="n">
         <v>367.2527749552542</v>
       </c>
       <c r="Q46" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209015</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
